--- a/results/summary_stats/road_conditions.xlsx
+++ b/results/summary_stats/road_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raghavpant/Desktop/git_projects/east-africa-transport/results/summary_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1F5BB9-C743-C44A-A8F6-52B2D955D223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924FC204-6C80-1943-9DBB-D8828124D814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="17">
   <si>
     <t>highway</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Unpaved (km)</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -101,6 +104,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -178,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -203,6 +207,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,15 +583,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A02192-0FD0-3048-A635-9B85FA6432F7}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -594,19 +601,23 @@
       <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -616,12 +627,16 @@
       <c r="C3" s="2">
         <v>1058.445667</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
+        <f>B3+C3</f>
+        <v>4621.6734259999957</v>
+      </c>
+      <c r="E3" s="3">
         <f>B3/(B3+C3)</f>
         <v>0.77098215961224403</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -631,12 +646,16 @@
       <c r="C4" s="2">
         <v>109.37805899999999</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D19" si="0">B4/(B4+C4)</f>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D21" si="0">B4+C4</f>
+        <v>2572.2118709999932</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E22" si="1">B4/(B4+C4)</f>
         <v>0.95747704136149658</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -646,198 +665,314 @@
       <c r="C5" s="2">
         <v>10095.452929000019</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
+        <v>11747.663394000019</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
         <v>0.14064162460118215</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <f>SUM(B3:B5)</f>
+        <v>7678.2720359999885</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:D6" si="2">SUM(C3:C5)</f>
+        <v>11263.27665500002</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>18941.548691000007</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.40536664457897709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>7541.7059659999795</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>1889.241119</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
+        <v>9430.9470849999798</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
         <v>0.79967641616769769</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>1507.657003999999</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>2956.857818</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
+        <v>4464.5148219999992</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
         <v>0.3376978381997181</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>1633.0322369999981</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>14277.805745999991</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
+        <v>15910.837982999989</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
         <v>0.10263646947727198</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <f>SUM(B8:B10)</f>
+        <v>10682.395206999976</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:D11" si="3">SUM(C8:C10)</f>
+        <v>19123.90468299999</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>29806.299889999966</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.35839387130986783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B13" s="9">
         <v>350.28859999999997</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C13" s="9">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
+        <v>350.28859999999997</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B14" s="9">
         <v>733.01199999999994</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C14" s="9">
         <v>0</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
+        <v>733.01199999999994</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B15" s="9">
         <v>3140.3539999999998</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C15" s="9">
         <v>791.10919999999999</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
+        <v>3931.4631999999997</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
         <v>0.79877486834927003</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B16" s="9">
         <v>824.28129999999999</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C16" s="9">
         <v>10661.9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D16" s="2">
         <f t="shared" si="0"/>
+        <v>11486.1813</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
         <v>7.1762866915569226E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <f>SUM(B13:B16)</f>
+        <v>5047.9358999999995</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" ref="C17:D17" si="4">SUM(C13:C16)</f>
+        <v>11453.0092</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="4"/>
+        <v>16500.945100000001</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.30591798647945317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B19" s="2">
         <v>4047.1560779999986</v>
-      </c>
-      <c r="C16" s="2">
-        <v>45.299275999999999</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.98893102744401984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2460.2841809999991</v>
-      </c>
-      <c r="C17" s="2">
-        <v>728.5989659999999</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.77151907661293795</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2">
-        <v>955.81464099999971</v>
-      </c>
-      <c r="C18" s="2">
-        <v>4697.3867740000078</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.16907493132366988</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4045.2800079999988</v>
       </c>
       <c r="C19" s="2">
         <v>45.299275999999999</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>0.98892595086050894</v>
+        <v>4092.4553539999988</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98893102744401984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2460.2841809999991</v>
+      </c>
+      <c r="C20" s="2">
+        <v>728.5989659999999</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>3188.8831469999991</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.77151907661293795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>955.81464099999971</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4697.3867740000078</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>5653.2014150000077</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.16907493132366988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <f>SUM(B19:B21)</f>
+        <v>7463.2548999999972</v>
+      </c>
+      <c r="C22" s="2">
+        <f>SUM(C19:C21)</f>
+        <v>5471.285016000008</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM(D19:D21)</f>
+        <v>12934.539916000005</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.57700196129650994</v>
       </c>
     </row>
   </sheetData>
